--- a/Copie de A1-Fondamentaux Scientifiques -2018-2019-PROJET_Grille evaluation ETUDIANT (1).xlsx
+++ b/Copie de A1-Fondamentaux Scientifiques -2018-2019-PROJET_Grille evaluation ETUDIANT (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Travaux\C\HeXart\HeXart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\HeXart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6E6B4-E6BA-4C51-973B-59061B39BAA2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59006198-3B5A-4EAD-9285-38193D2C2332}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA EXPLICATIVE GRILLE" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -997,6 +997,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,6 +1042,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1077,18 +1142,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,60 +1166,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1599,74 +1599,74 @@
       <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M2"/>
@@ -1684,25 +1684,25 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1713,441 +1713,441 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:5" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:5" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="49" t="s">
+    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="58" t="s">
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="56" t="s">
+      <c r="E5" s="53"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="56" t="s">
+      <c r="E6" s="53"/>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="48" t="s">
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="56" t="s">
+      <c r="E8" s="53"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="56" t="s">
+      <c r="E9" s="53"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="49" t="s">
+      <c r="E10" s="53"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="56" t="s">
+      <c r="E11" s="53"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="56" t="s">
+      <c r="E12" s="53"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="58" t="s">
+      <c r="E13" s="53"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="58" t="s">
+      <c r="E14" s="53"/>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="56" t="s">
+    <row r="18" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="41"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="58" t="s">
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="58" t="s">
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="56" t="s">
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="41"/>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="49" t="s">
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:5" ht="25.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="56" t="s">
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="56" t="s">
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
+      <c r="E24" s="55"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:5" ht="22.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="58" t="s">
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="1:5" ht="23.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="58" t="s">
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="1:5" ht="23.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" ht="51" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+      <c r="E27" s="55"/>
+    </row>
+    <row r="28" spans="1:5" ht="55.2" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="41"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49" t="s">
+      <c r="E28" s="55"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="56" t="s">
+      <c r="E29" s="55"/>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="57" t="s">
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="57" t="s">
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="56" t="s">
+    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="56" t="s">
+    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="57" t="s">
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="57" t="s">
+    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48" t="s">
+    <row r="37" spans="1:5" ht="27.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="48"/>
+    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
+    <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-    </row>
-    <row r="40" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="58" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="58" t="s">
+    <row r="41" spans="1:5" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="58" t="s">
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="41"/>
-    </row>
-    <row r="43" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="58" t="s">
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="41"/>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
-    </row>
-    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-    </row>
-    <row r="46" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+    </row>
+    <row r="46" spans="1:5" ht="41.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>3</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="61.2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="41.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>8</v>
       </c>
@@ -2198,33 +2198,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-    </row>
-    <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:A38"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A40:C43"/>
     <mergeCell ref="A45:E45"/>
@@ -2241,6 +2234,13 @@
     <mergeCell ref="B17:B36"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="C29:C36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Copie de A1-Fondamentaux Scientifiques -2018-2019-PROJET_Grille evaluation ETUDIANT (1).xlsx
+++ b/Copie de A1-Fondamentaux Scientifiques -2018-2019-PROJET_Grille evaluation ETUDIANT (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\HeXart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Travaux\C\HeXart\HeXart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59006198-3B5A-4EAD-9285-38193D2C2332}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8B8A35-78FD-49C5-BD30-B90A2D122F14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA EXPLICATIVE GRILLE" sheetId="3" r:id="rId1"/>
@@ -1006,6 +1006,9 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,19 +1045,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1065,109 +1168,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1599,74 +1599,74 @@
       <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M2"/>
@@ -1684,25 +1684,25 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1713,20 +1713,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" ht="25.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="53" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1735,343 +1735,343 @@
       <c r="D3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="33" t="s">
+    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="53"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="53"/>
-    </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="53"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="40" t="s">
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="52" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="40"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="53"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="40"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="53"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="33" t="s">
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="53"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="53"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="53"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="53"/>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="53"/>
-    </row>
-    <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="53" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+    <row r="18" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="33" t="s">
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="23" spans="1:5" ht="25.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="55"/>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="59" t="s">
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="55"/>
-    </row>
-    <row r="26" spans="1:5" ht="22.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="55"/>
-    </row>
-    <row r="27" spans="1:5" ht="23.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" ht="23.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="55"/>
-    </row>
-    <row r="28" spans="1:5" ht="55.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5" ht="51" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="55"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="33" t="s">
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="55"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="13" t="s">
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="55"/>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="13" t="s">
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="13" t="s">
+    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="12" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="27.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="40" t="s">
+    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="40"/>
+    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2080,74 +2080,74 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56" t="s">
+    <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+    </row>
+    <row r="40" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
+    <row r="41" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="55"/>
-    </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
+      <c r="E41" s="45"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="55"/>
-    </row>
-    <row r="43" spans="1:5" ht="20.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
+      <c r="E42" s="45"/>
+    </row>
+    <row r="43" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="55"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="E43" s="45"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
-    </row>
-    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-    </row>
-    <row r="46" spans="1:5" ht="41.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>3</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="61.2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="41.4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>8</v>
       </c>
@@ -2198,26 +2198,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="51"/>
+    </row>
+    <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A40:C43"/>
     <mergeCell ref="A45:E45"/>
@@ -2234,13 +2241,6 @@
     <mergeCell ref="B17:B36"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="C29:C36"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:A38"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
